--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Weber/Friedrich_Weber.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Weber/Friedrich_Weber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedrich Weber est un entomologiste allemand, né en 1781[1] à Kiel et mort le 21 mars 1823 dans cette même ville.
-Élève précoce de Johan Christian Fabricius (1745-1808), il fait paraître, à quatorze ans, sa Nomenclator entomologicus et en 1801 ses Observationes entomologicae. Les deux ouvrages contiennent les premières descriptions de plusieurs espèces d'insectes mais aussi d'autres invertébrés[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedrich Weber est un entomologiste allemand, né en 1781 à Kiel et mort le 21 mars 1823 dans cette même ville.
+Élève précoce de Johan Christian Fabricius (1745-1808), il fait paraître, à quatorze ans, sa Nomenclator entomologicus et en 1801 ses Observationes entomologicae. Les deux ouvrages contiennent les premières descriptions de plusieurs espèces d'insectes mais aussi d'autres invertébrés.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1795 : Nomenclator entomologicus secundum entomologian systematicam ill. Fabricii, adjectis speciebus recens detectis et varietatibus. Chiloni et Hamburgi: C.E. Bohn viii 171 pp.
 1801 : Observationes entomologicae, continentes novorum quae condidit generum characteres, et nuper detectarum specierum descriptiones. Bibliopolii academici novi, Kiliae, 116 pages. (BHL)</t>
@@ -543,7 +557,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Certaines sources donnent la date de 1752
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>S.L. Tuxen (1967). The entomologist J.C. Fabricius, Annual Review Entomology, 12 : 1-14.  (ISSN 0066-4170)</t>
         </is>
